--- a/src/test/resources/obieeReportsExcel/OBIEE_Role_Permission_Matrix_v1.1.xlsx
+++ b/src/test/resources/obieeReportsExcel/OBIEE_Role_Permission_Matrix_v1.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Althea\Documents\DoD\D2D\Design\Security\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TestSecurity\src\test\resources\obieeReportsExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED16F70-82E3-48BE-9CFC-0ACC8C263E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C7DCB1-B958-4B7B-A657-F5A0A133D632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01C17077-5975-4EC6-9442-2A1E35923D02}"/>
+    <workbookView xWindow="2498" yWindow="2213" windowWidth="21487" windowHeight="11422" xr2:uid="{01C17077-5975-4EC6-9442-2A1E35923D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation &amp; SA Roles " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="148">
   <si>
     <t>Subject Areas</t>
   </si>
@@ -1287,20 +1287,20 @@
   <dimension ref="A1:BE60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV39" sqref="AV39"/>
+      <selection pane="bottomRight" activeCell="AS36" sqref="AS36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="57" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="228" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" ht="220.15" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="BD2" s="5"/>
       <c r="BE2" s="5"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A3" s="50" t="s">
         <v>104</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="BD3" s="49"/>
       <c r="BE3" s="49"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="BD4" s="21"/>
       <c r="BE4" s="21"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="BD5" s="21"/>
       <c r="BE5" s="21"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="BD6" s="21"/>
       <c r="BE6" s="21"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="BD7" s="21"/>
       <c r="BE7" s="21"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="BD8" s="21"/>
       <c r="BE8" s="21"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
         <v>106</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="BD9" s="56"/>
       <c r="BE9" s="56"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -2181,9 +2181,7 @@
       <c r="AP10" s="21"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="21"/>
-      <c r="AS10" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="AS10" s="21"/>
       <c r="AT10" s="21"/>
       <c r="AU10" s="21"/>
       <c r="AV10" s="68" t="s">
@@ -2201,7 +2199,7 @@
       <c r="BD10" s="21"/>
       <c r="BE10" s="21"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2274,9 +2272,7 @@
       <c r="AP11" s="21"/>
       <c r="AQ11" s="21"/>
       <c r="AR11" s="21"/>
-      <c r="AS11" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="AS11" s="21"/>
       <c r="AT11" s="21"/>
       <c r="AU11" s="21"/>
       <c r="AV11" s="68" t="s">
@@ -2294,7 +2290,7 @@
       <c r="BD11" s="21"/>
       <c r="BE11" s="21"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -2385,7 +2381,7 @@
       <c r="BD12" s="21"/>
       <c r="BE12" s="21"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -2468,7 +2464,7 @@
       <c r="BD13" s="21"/>
       <c r="BE13" s="21"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -2567,7 +2563,7 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="21"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A15" s="59" t="s">
         <v>105</v>
       </c>
@@ -2628,7 +2624,7 @@
       <c r="BD15" s="56"/>
       <c r="BE15" s="56"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2741,7 +2737,7 @@
       <c r="BD16" s="21"/>
       <c r="BE16" s="21"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -2856,7 +2852,7 @@
       <c r="BD17" s="21"/>
       <c r="BE17" s="21"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -2973,7 +2969,7 @@
       <c r="BD18" s="21"/>
       <c r="BE18" s="21"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -3092,7 +3088,7 @@
       <c r="BD19" s="21"/>
       <c r="BE19" s="21"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -3215,7 +3211,7 @@
       <c r="BD20" s="21"/>
       <c r="BE20" s="21"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A21" s="59" t="s">
         <v>107</v>
       </c>
@@ -3276,7 +3272,7 @@
       <c r="BD21" s="56"/>
       <c r="BE21" s="56"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
@@ -3397,7 +3393,7 @@
       <c r="BD22" s="21"/>
       <c r="BE22" s="21"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
@@ -3512,7 +3508,7 @@
       <c r="BD23" s="21"/>
       <c r="BE23" s="21"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
@@ -3631,7 +3627,7 @@
       <c r="BD24" s="21"/>
       <c r="BE24" s="21"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -3750,7 +3746,7 @@
       <c r="BD25" s="21"/>
       <c r="BE25" s="21"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -3853,7 +3849,7 @@
       <c r="BD26" s="21"/>
       <c r="BE26" s="21"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>36</v>
       </c>
@@ -3976,7 +3972,7 @@
       <c r="BD27" s="21"/>
       <c r="BE27" s="21"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A28" s="59" t="s">
         <v>104</v>
       </c>
@@ -4037,7 +4033,7 @@
       <c r="BD28" s="56"/>
       <c r="BE28" s="56"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
@@ -4134,7 +4130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -4241,7 +4237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -4356,7 +4352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
@@ -4459,7 +4455,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -4596,7 +4592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A34" s="59" t="s">
         <v>106</v>
       </c>
@@ -4657,7 +4653,7 @@
       <c r="BD34" s="56"/>
       <c r="BE34" s="56"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -4742,9 +4738,7 @@
       <c r="AP35" s="21"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="21"/>
-      <c r="AS35" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="AS35" s="21"/>
       <c r="AT35" s="21"/>
       <c r="AU35" s="21"/>
       <c r="AV35" s="68" t="s">
@@ -4768,7 +4762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -4859,9 +4853,7 @@
       <c r="AP36" s="21"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
-      <c r="AS36" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="AS36" s="21"/>
       <c r="AT36" s="21"/>
       <c r="AU36" s="21"/>
       <c r="AV36" s="68" t="s">
@@ -4885,7 +4877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -4994,7 +4986,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
@@ -5097,7 +5089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
@@ -5216,7 +5208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A40" s="59" t="s">
         <v>105</v>
       </c>
@@ -5277,7 +5269,7 @@
       <c r="BD40" s="56"/>
       <c r="BE40" s="56"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -5412,7 +5404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -5553,7 +5545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -5694,7 +5686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -5841,7 +5833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
@@ -5998,7 +5990,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A46" s="59" t="s">
         <v>107</v>
       </c>
@@ -6059,7 +6051,7 @@
       <c r="BD46" s="56"/>
       <c r="BE46" s="56"/>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
@@ -6206,7 +6198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
@@ -6343,7 +6335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
@@ -6488,7 +6480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
@@ -6631,7 +6623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
@@ -6758,7 +6750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:57" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:57" s="45" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="16" t="s">
         <v>57</v>
       </c>
@@ -6915,7 +6907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:57" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" s="45" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="59" t="s">
         <v>108</v>
       </c>
@@ -6976,7 +6968,7 @@
       <c r="BD53" s="63"/>
       <c r="BE53" s="64"/>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>62</v>
       </c>
@@ -7037,7 +7029,7 @@
       <c r="BD54" s="27"/>
       <c r="BE54" s="28"/>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>63</v>
       </c>
@@ -7098,7 +7090,7 @@
       <c r="BD55" s="29"/>
       <c r="BE55" s="30"/>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>64</v>
       </c>
@@ -7159,7 +7151,7 @@
       <c r="BD56" s="29"/>
       <c r="BE56" s="30"/>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
@@ -7220,7 +7212,7 @@
       <c r="BD57" s="29"/>
       <c r="BE57" s="30"/>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>66</v>
       </c>
@@ -7281,7 +7273,7 @@
       <c r="BD58" s="29"/>
       <c r="BE58" s="30"/>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>67</v>
       </c>
@@ -7342,7 +7334,7 @@
       <c r="BD59" s="29"/>
       <c r="BE59" s="30"/>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>68</v>
       </c>
@@ -7418,13 +7410,13 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="70" t="s">
         <v>112</v>
       </c>
@@ -7435,7 +7427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -7446,7 +7438,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -7457,7 +7449,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -7468,7 +7460,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -7479,7 +7471,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -7490,7 +7482,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -7501,7 +7493,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -7512,7 +7504,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -7523,7 +7515,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -7534,7 +7526,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -7545,7 +7537,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -7556,7 +7548,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -7567,7 +7559,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -7578,7 +7570,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -7589,7 +7581,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -7600,7 +7592,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -7611,7 +7603,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -7622,7 +7614,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -7647,47 +7639,47 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="70" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="71" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7705,12 +7697,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -7721,7 +7713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7732,7 +7724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -7743,7 +7735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -7754,7 +7746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -7765,7 +7757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>23</v>

--- a/src/test/resources/obieeReportsExcel/OBIEE_Role_Permission_Matrix_v1.1.xlsx
+++ b/src/test/resources/obieeReportsExcel/OBIEE_Role_Permission_Matrix_v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TestSecurity\src\test\resources\obieeReportsExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C7DCB1-B958-4B7B-A657-F5A0A133D632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F908A01D-935F-4113-98BE-A87E10587BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2498" yWindow="2213" windowWidth="21487" windowHeight="11422" xr2:uid="{01C17077-5975-4EC6-9442-2A1E35923D02}"/>
+    <workbookView xWindow="2498" yWindow="2213" windowWidth="24885" windowHeight="11422" xr2:uid="{01C17077-5975-4EC6-9442-2A1E35923D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation &amp; SA Roles " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="148">
   <si>
     <t>Subject Areas</t>
   </si>
@@ -1287,10 +1287,10 @@
   <dimension ref="A1:BE60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS36" sqref="AS36"/>
+      <selection pane="bottomRight" activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2034,12 +2034,8 @@
       <c r="AU8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AV8" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW8" s="73" t="s">
-        <v>58</v>
-      </c>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="73"/>
       <c r="AX8" s="22"/>
       <c r="AY8" s="29"/>
       <c r="AZ8" s="29"/>
@@ -2184,12 +2180,8 @@
       <c r="AS10" s="21"/>
       <c r="AT10" s="21"/>
       <c r="AU10" s="21"/>
-      <c r="AV10" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW10" s="68" t="s">
-        <v>58</v>
-      </c>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="68"/>
       <c r="AX10" s="22"/>
       <c r="AY10" s="29"/>
       <c r="AZ10" s="29"/>
@@ -2275,12 +2267,8 @@
       <c r="AS11" s="21"/>
       <c r="AT11" s="21"/>
       <c r="AU11" s="21"/>
-      <c r="AV11" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW11" s="68" t="s">
-        <v>58</v>
-      </c>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
       <c r="AX11" s="22"/>
       <c r="AY11" s="29"/>
       <c r="AZ11" s="29"/>
@@ -2366,12 +2354,8 @@
       <c r="AU12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AV12" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW12" s="73" t="s">
-        <v>58</v>
-      </c>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
       <c r="AX12" s="22"/>
       <c r="AY12" s="29"/>
       <c r="AZ12" s="29"/>

--- a/src/test/resources/obieeReportsExcel/OBIEE_Role_Permission_Matrix_v1.1.xlsx
+++ b/src/test/resources/obieeReportsExcel/OBIEE_Role_Permission_Matrix_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TestSecurity\src\test\resources\obieeReportsExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F908A01D-935F-4113-98BE-A87E10587BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058BADC5-7E42-4685-BC07-4AD4B8557903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2498" yWindow="2213" windowWidth="24885" windowHeight="11422" xr2:uid="{01C17077-5975-4EC6-9442-2A1E35923D02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="148">
   <si>
     <t>Subject Areas</t>
   </si>
@@ -1287,10 +1287,10 @@
   <dimension ref="A1:BE60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW12" sqref="AW12"/>
+      <selection pane="bottomRight" activeCell="AW37" sqref="AW37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3898,7 +3898,9 @@
       <c r="AF27" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AG27" s="20"/>
+      <c r="AG27" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="AH27" s="20" t="s">
         <v>58</v>
       </c>
@@ -4725,12 +4727,8 @@
       <c r="AS35" s="21"/>
       <c r="AT35" s="21"/>
       <c r="AU35" s="21"/>
-      <c r="AV35" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW35" s="68" t="s">
-        <v>58</v>
-      </c>
+      <c r="AV35" s="68"/>
+      <c r="AW35" s="68"/>
       <c r="AX35" s="22"/>
       <c r="AY35" s="29"/>
       <c r="AZ35" s="29"/>
@@ -4840,12 +4838,8 @@
       <c r="AS36" s="21"/>
       <c r="AT36" s="21"/>
       <c r="AU36" s="21"/>
-      <c r="AV36" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW36" s="68" t="s">
-        <v>58</v>
-      </c>
+      <c r="AV36" s="68"/>
+      <c r="AW36" s="68"/>
       <c r="AX36" s="22"/>
       <c r="AY36" s="29"/>
       <c r="AZ36" s="29"/>
@@ -4949,12 +4943,8 @@
       <c r="AU37" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AV37" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW37" s="73" t="s">
-        <v>58</v>
-      </c>
+      <c r="AV37" s="73"/>
+      <c r="AW37" s="73"/>
       <c r="AX37" s="22"/>
       <c r="AY37" s="29"/>
       <c r="AZ37" s="29"/>
@@ -6120,7 +6110,9 @@
       <c r="AF47" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AG47" s="20"/>
+      <c r="AG47" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="AH47" s="20" t="s">
         <v>58</v>
       </c>
@@ -6827,7 +6819,9 @@
       <c r="AF52" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AG52" s="42"/>
+      <c r="AG52" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="AH52" s="42" t="s">
         <v>58</v>
       </c>
